--- a/Parameters_Errors.xlsx
+++ b/Parameters_Errors.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>9.562828486121912</v>
+        <v>61.64685777040825</v>
       </c>
       <c r="B2">
-        <v>121.1824051035674</v>
+        <v>77.20415421114511</v>
       </c>
       <c r="C2">
-        <v>176.1718419931419</v>
+        <v>254.2164510456709</v>
       </c>
       <c r="D2">
-        <v>90880.53489406925</v>
+        <v>90420.41821749797</v>
       </c>
       <c r="E2">
-        <v>125224.649030226</v>
+        <v>124433.6905052894</v>
       </c>
       <c r="F2">
-        <v>125491.6610661921</v>
+        <v>124677.3273501622</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters_Errors.xlsx
+++ b/Parameters_Errors.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>61.64685777040825</v>
+        <v>25.9972225045582</v>
       </c>
       <c r="B2">
-        <v>77.20415421114511</v>
+        <v>170.2419616597987</v>
       </c>
       <c r="C2">
-        <v>254.2164510456709</v>
+        <v>1037.545870846072</v>
       </c>
       <c r="D2">
-        <v>90420.41821749797</v>
+        <v>8585.258350026581</v>
       </c>
       <c r="E2">
-        <v>124433.6905052894</v>
+        <v>23844.80708454279</v>
       </c>
       <c r="F2">
-        <v>124677.3273501622</v>
+        <v>24094.44173751709</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters_Errors.xlsx
+++ b/Parameters_Errors.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1190.858523853698</v>
+        <v>26228.17349236318</v>
       </c>
       <c r="B2">
-        <v>1521.999235809312</v>
+        <v>26606.64829262774</v>
       </c>
       <c r="C2">
-        <v>2918.832979266287</v>
+        <v>28037.69579266582</v>
       </c>
       <c r="D2">
-        <v>3085.166692128617</v>
+        <v>58264.67814498577</v>
       </c>
       <c r="E2">
-        <v>3180.523780481146</v>
+        <v>92781.86772418486</v>
       </c>
       <c r="F2">
-        <v>3488.068989694415</v>
+        <v>93061.91990499808</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters_Errors.xlsx
+++ b/Parameters_Errors.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>25.9972225045582</v>
+        <v>20.91851789238869</v>
       </c>
       <c r="B2">
-        <v>170.2419616597987</v>
+        <v>534.0836112561544</v>
       </c>
       <c r="C2">
-        <v>1037.545870846072</v>
+        <v>672.738042351087</v>
       </c>
       <c r="D2">
-        <v>8585.258350026581</v>
+        <v>28560.44543588274</v>
       </c>
       <c r="E2">
-        <v>23844.80708454279</v>
+        <v>30154.21613743839</v>
       </c>
       <c r="F2">
-        <v>24094.44173751709</v>
+        <v>30239.55652131807</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters_Errors.xlsx
+++ b/Parameters_Errors.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>26228.17349236318</v>
+        <v>20817.64255437836</v>
       </c>
       <c r="B2">
-        <v>26606.64829262774</v>
+        <v>20823.68907714144</v>
       </c>
       <c r="C2">
-        <v>28037.69579266582</v>
+        <v>21279.52577396135</v>
       </c>
       <c r="D2">
-        <v>58264.67814498577</v>
+        <v>130967.7015594633</v>
       </c>
       <c r="E2">
-        <v>92781.86772418486</v>
+        <v>278191.6150254355</v>
       </c>
       <c r="F2">
-        <v>93061.91990499808</v>
+        <v>278489.2246077536</v>
       </c>
     </row>
   </sheetData>

--- a/Parameters_Errors.xlsx
+++ b/Parameters_Errors.xlsx
@@ -417,22 +417,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20817.64255437836</v>
+        <v>1922.967240463072</v>
       </c>
       <c r="B2">
-        <v>20823.68907714144</v>
+        <v>2271.528042957822</v>
       </c>
       <c r="C2">
-        <v>21279.52577396135</v>
+        <v>3795.324972308369</v>
       </c>
       <c r="D2">
-        <v>130967.7015594633</v>
+        <v>4313.53139013328</v>
       </c>
       <c r="E2">
-        <v>278191.6150254355</v>
+        <v>4959.674244807916</v>
       </c>
       <c r="F2">
-        <v>278489.2246077536</v>
+        <v>5310.339510221675</v>
       </c>
     </row>
   </sheetData>
